--- a/natmiOut/YoungD7/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.1881691411637</v>
+        <v>22.839587</v>
       </c>
       <c r="N2">
-        <v>21.1881691411637</v>
+        <v>68.518761</v>
       </c>
       <c r="O2">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="P2">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="Q2">
-        <v>2288.572530154804</v>
+        <v>2532.00638255004</v>
       </c>
       <c r="R2">
-        <v>2288.572530154804</v>
+        <v>22788.05744295036</v>
       </c>
       <c r="S2">
-        <v>0.05007695351484857</v>
+        <v>0.05080198670154022</v>
       </c>
       <c r="T2">
-        <v>0.05007695351484857</v>
+        <v>0.05080198670154022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H3">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.2610294023359</v>
+        <v>31.29092</v>
       </c>
       <c r="N3">
-        <v>31.2610294023359</v>
+        <v>93.87276</v>
       </c>
       <c r="O3">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="P3">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="Q3">
-        <v>3376.560413403339</v>
+        <v>3468.924773283453</v>
       </c>
       <c r="R3">
-        <v>3376.560413403339</v>
+        <v>31220.32295955108</v>
       </c>
       <c r="S3">
-        <v>0.0738835482092584</v>
+        <v>0.06960024722509031</v>
       </c>
       <c r="T3">
-        <v>0.0738835482092584</v>
+        <v>0.06960024722509033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H4">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.7158161083243</v>
+        <v>35.824351</v>
       </c>
       <c r="N4">
-        <v>33.7158161083243</v>
+        <v>107.473053</v>
       </c>
       <c r="O4">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433458</v>
       </c>
       <c r="P4">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433459</v>
       </c>
       <c r="Q4">
-        <v>3641.706372229949</v>
+        <v>3971.502872740778</v>
       </c>
       <c r="R4">
-        <v>3641.706372229949</v>
+        <v>35743.525854667</v>
       </c>
       <c r="S4">
-        <v>0.079685287800143</v>
+        <v>0.07968393662693239</v>
       </c>
       <c r="T4">
-        <v>0.079685287800143</v>
+        <v>0.07968393662693241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H5">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.6168252574614</v>
+        <v>22.88025066666667</v>
       </c>
       <c r="N5">
-        <v>22.6168252574614</v>
+        <v>68.64075199999999</v>
       </c>
       <c r="O5">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="P5">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="Q5">
-        <v>2442.884265209085</v>
+        <v>2536.514374027201</v>
       </c>
       <c r="R5">
-        <v>2442.884265209085</v>
+        <v>22828.62936624481</v>
       </c>
       <c r="S5">
-        <v>0.05345349565248674</v>
+        <v>0.05089243470540455</v>
       </c>
       <c r="T5">
-        <v>0.05345349565248674</v>
+        <v>0.05089243470540455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H6">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.1881691411637</v>
+        <v>22.839587</v>
       </c>
       <c r="N6">
-        <v>21.1881691411637</v>
+        <v>68.518761</v>
       </c>
       <c r="O6">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="P6">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="Q6">
-        <v>3882.226520222923</v>
+        <v>4221.710418015774</v>
       </c>
       <c r="R6">
-        <v>3882.226520222923</v>
+        <v>37995.39376214196</v>
       </c>
       <c r="S6">
-        <v>0.08494818251364983</v>
+        <v>0.08470408210337618</v>
       </c>
       <c r="T6">
-        <v>0.08494818251364983</v>
+        <v>0.0847040821033762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H7">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.2610294023359</v>
+        <v>31.29092</v>
       </c>
       <c r="N7">
-        <v>31.2610294023359</v>
+        <v>93.87276</v>
       </c>
       <c r="O7">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="P7">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="Q7">
-        <v>5727.837860206523</v>
+        <v>5783.87003903784</v>
       </c>
       <c r="R7">
-        <v>5727.837860206523</v>
+        <v>52054.83035134056</v>
       </c>
       <c r="S7">
-        <v>0.1253325671294105</v>
+        <v>0.1160471359123164</v>
       </c>
       <c r="T7">
-        <v>0.1253325671294105</v>
+        <v>0.1160471359123165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H8">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.7158161083243</v>
+        <v>35.824351</v>
       </c>
       <c r="N8">
-        <v>33.7158161083243</v>
+        <v>107.473053</v>
       </c>
       <c r="O8">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433458</v>
       </c>
       <c r="P8">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433459</v>
       </c>
       <c r="Q8">
-        <v>6177.618961536518</v>
+        <v>6621.837594320502</v>
       </c>
       <c r="R8">
-        <v>6177.618961536518</v>
+        <v>59596.53834888452</v>
       </c>
       <c r="S8">
-        <v>0.1351743645845412</v>
+        <v>0.1328600542734931</v>
       </c>
       <c r="T8">
-        <v>0.1351743645845412</v>
+        <v>0.1328600542734931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H9">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.6168252574614</v>
+        <v>22.88025066666667</v>
       </c>
       <c r="N9">
-        <v>22.6168252574614</v>
+        <v>68.64075199999999</v>
       </c>
       <c r="O9">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="P9">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="Q9">
-        <v>4143.99367084446</v>
+        <v>4229.226763438368</v>
       </c>
       <c r="R9">
-        <v>4143.99367084446</v>
+        <v>38063.0408709453</v>
       </c>
       <c r="S9">
-        <v>0.09067598937171015</v>
+        <v>0.08485488949581974</v>
       </c>
       <c r="T9">
-        <v>0.09067598937171015</v>
+        <v>0.08485488949581974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H10">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.1881691411637</v>
+        <v>22.839587</v>
       </c>
       <c r="N10">
-        <v>21.1881691411637</v>
+        <v>68.518761</v>
       </c>
       <c r="O10">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="P10">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="Q10">
-        <v>1700.150205980489</v>
+        <v>2175.053991551163</v>
       </c>
       <c r="R10">
-        <v>1700.150205980489</v>
+        <v>19575.48592396047</v>
       </c>
       <c r="S10">
-        <v>0.03720150517903239</v>
+        <v>0.04364012062348362</v>
       </c>
       <c r="T10">
-        <v>0.03720150517903239</v>
+        <v>0.04364012062348363</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H11">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.2610294023359</v>
+        <v>31.29092</v>
       </c>
       <c r="N11">
-        <v>31.2610294023359</v>
+        <v>93.87276</v>
       </c>
       <c r="O11">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="P11">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="Q11">
-        <v>2508.401987139531</v>
+        <v>2979.889279316134</v>
       </c>
       <c r="R11">
-        <v>2508.401987139531</v>
+        <v>26819.0035138452</v>
       </c>
       <c r="S11">
-        <v>0.05488710890803332</v>
+        <v>0.05978827564700605</v>
       </c>
       <c r="T11">
-        <v>0.05488710890803332</v>
+        <v>0.05978827564700607</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H12">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.7158161083243</v>
+        <v>35.824351</v>
       </c>
       <c r="N12">
-        <v>33.7158161083243</v>
+        <v>107.473053</v>
       </c>
       <c r="O12">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433458</v>
       </c>
       <c r="P12">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433459</v>
       </c>
       <c r="Q12">
-        <v>2705.375406410391</v>
+        <v>3411.615877173257</v>
       </c>
       <c r="R12">
-        <v>2705.375406410391</v>
+        <v>30704.54289455931</v>
       </c>
       <c r="S12">
-        <v>0.05919714436922992</v>
+        <v>0.06845040581942291</v>
       </c>
       <c r="T12">
-        <v>0.05919714436922992</v>
+        <v>0.06845040581942294</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H13">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.6168252574614</v>
+        <v>22.88025066666667</v>
       </c>
       <c r="N13">
-        <v>22.6168252574614</v>
+        <v>68.64075199999999</v>
       </c>
       <c r="O13">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="P13">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="Q13">
-        <v>1814.78634911378</v>
+        <v>2178.926463960338</v>
       </c>
       <c r="R13">
-        <v>1814.78634911378</v>
+        <v>19610.33817564304</v>
       </c>
       <c r="S13">
-        <v>0.03970989358934816</v>
+        <v>0.04371781762029562</v>
       </c>
       <c r="T13">
-        <v>0.03970989358934816</v>
+        <v>0.04371781762029563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H14">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.1881691411637</v>
+        <v>22.839587</v>
       </c>
       <c r="N14">
-        <v>21.1881691411637</v>
+        <v>68.518761</v>
       </c>
       <c r="O14">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="P14">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="Q14">
-        <v>1030.563358045124</v>
+        <v>1159.763965407225</v>
       </c>
       <c r="R14">
-        <v>1030.563358045124</v>
+        <v>10437.87568866502</v>
       </c>
       <c r="S14">
-        <v>0.022550071144759</v>
+        <v>0.02326941746813665</v>
       </c>
       <c r="T14">
-        <v>0.022550071144759</v>
+        <v>0.02326941746813666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H15">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.2610294023359</v>
+        <v>31.29092</v>
       </c>
       <c r="N15">
-        <v>31.2610294023359</v>
+        <v>93.87276</v>
       </c>
       <c r="O15">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="P15">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="Q15">
-        <v>1520.493404700527</v>
+        <v>1588.911457131</v>
       </c>
       <c r="R15">
-        <v>1520.493404700527</v>
+        <v>14300.203114179</v>
       </c>
       <c r="S15">
-        <v>0.0332703799174203</v>
+        <v>0.03187980064797435</v>
       </c>
       <c r="T15">
-        <v>0.0332703799174203</v>
+        <v>0.03187980064797435</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H16">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.7158161083243</v>
+        <v>35.824351</v>
       </c>
       <c r="N16">
-        <v>33.7158161083243</v>
+        <v>107.473053</v>
       </c>
       <c r="O16">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433458</v>
       </c>
       <c r="P16">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433459</v>
       </c>
       <c r="Q16">
-        <v>1639.890848347185</v>
+        <v>1819.113076514925</v>
       </c>
       <c r="R16">
-        <v>1639.890848347185</v>
+        <v>16372.01768863433</v>
       </c>
       <c r="S16">
-        <v>0.03588295179639892</v>
+        <v>0.03649854872349743</v>
       </c>
       <c r="T16">
-        <v>0.03588295179639892</v>
+        <v>0.03649854872349745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H17">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.6168252574614</v>
+        <v>22.88025066666667</v>
       </c>
       <c r="N17">
-        <v>22.6168252574614</v>
+        <v>68.64075199999999</v>
       </c>
       <c r="O17">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="P17">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="Q17">
-        <v>1100.051223414439</v>
+        <v>1161.8288125212</v>
       </c>
       <c r="R17">
-        <v>1100.051223414439</v>
+        <v>10456.4593126908</v>
       </c>
       <c r="S17">
-        <v>0.02407055631972956</v>
+        <v>0.02331084640621035</v>
       </c>
       <c r="T17">
-        <v>0.02407055631972956</v>
+        <v>0.02331084640621035</v>
       </c>
     </row>
   </sheetData>
